--- a/WorkBot/main/backend/ordering/Completed Orders/UNFI/UNFI_Downtown_20250620.xlsx
+++ b/WorkBot/main/backend/ordering/Completed Orders/UNFI/UNFI_Downtown_20250620.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -826,6 +826,654 @@
         </is>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>284465-2</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Bobo's Bar - Stuff'd Oat PB&amp;Berry</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>27.38</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>27.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>0647743</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Justin's - Peanut Butter Cup (Dk Choc)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>23.03</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>46.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>047216-7</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Clif Bar - Choc Chip</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>21.29</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>21.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>201159-1</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Clif Bar - PB Dk Choc</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>21.29</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>21.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>056081-3</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Clif Bar - Oat Raisin Walnut</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>21.29</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>21.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>039986-5</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Kind - Fruit &amp; Nut Delight</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>21.86</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>21.86</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>151758-0</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>That's It - Apple &amp; Blueberry</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>18.18</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>18.18</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>113813-0</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>That's It - Apple &amp; Cherry</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>18.18</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>18.18</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>117597-5</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>That's It - Apple &amp; Mango (Fruit Bar)</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>18.18</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>18.18</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>113815-5</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>That's It - Apple &amp; Pear (Fruit Bar)</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>18.18</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>18.18</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>1551282</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>That's It - Apple &amp; Strawberry (Fruit Bar)</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>18.18</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>18.18</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>236947-8</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Bob's Bar - Oat, PBJ</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>15.73</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>15.73</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>236945-2</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Bob's Bar - Oat, PB Banana</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>15.73</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>15.73</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>236946-0</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Bob's Bar - Oat, Choc PB</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>15.73</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>15.73</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>272156-1</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Bob's Red Mill - Cracker Jalapeno</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>17.03</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>17.03</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>272155-3</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Bob's Red Mill - Cracker Sesame</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>17.03</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>17.03</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>272154-6</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Bob's Red Mill - Cracker Rosemary</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>17.03</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>17.03</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>126503-2</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Sahale Snacks - Honey Glazed Almonds</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>14.87</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>14.87</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>162243-0</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Go Macro - Cherries &amp; Berries</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>32.68</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>32.68</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>253939-3</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Lundberg Family Farm - Mini Rice Cakes (Ginger Seaweed)</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>24.21</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>24.21</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>218562-7</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Chomps - Beef Stickes Hoppin Jalapeno</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>45.97</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>45.97</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>218561-9</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Chomps - Beef Sticks Original</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>45.97</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2846376</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Lesser Evil - Popcorn Himilayan (6.7oz)</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>39.49</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>39.49</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>291971-0</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Lesser Evil - Space Balls Intersteller Cheddar</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>52.93</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>52.93</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
